--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cxcl12-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cxcl12-Itgav.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>109.1118546666667</v>
+        <v>202.3573813333333</v>
       </c>
       <c r="H2">
-        <v>327.335564</v>
+        <v>607.072144</v>
       </c>
       <c r="I2">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="J2">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N2">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O2">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P2">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q2">
-        <v>1091.244061670151</v>
+        <v>3673.400221137584</v>
       </c>
       <c r="R2">
-        <v>9821.196555031363</v>
+        <v>33060.60199023825</v>
       </c>
       <c r="S2">
-        <v>0.01075735722363819</v>
+        <v>0.02806590526749427</v>
       </c>
       <c r="T2">
-        <v>0.01075735722363819</v>
+        <v>0.02806590526749427</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>109.1118546666667</v>
+        <v>202.3573813333333</v>
       </c>
       <c r="H3">
-        <v>327.335564</v>
+        <v>607.072144</v>
       </c>
       <c r="I3">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="J3">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>214.143257</v>
       </c>
       <c r="O3">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P3">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q3">
-        <v>7788.522645210215</v>
+        <v>14444.489572237</v>
       </c>
       <c r="R3">
-        <v>70096.70380689195</v>
+        <v>130000.406150133</v>
       </c>
       <c r="S3">
-        <v>0.07677835168302334</v>
+        <v>0.1103603341773003</v>
       </c>
       <c r="T3">
-        <v>0.07677835168302335</v>
+        <v>0.1103603341773003</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>109.1118546666667</v>
+        <v>202.3573813333333</v>
       </c>
       <c r="H4">
-        <v>327.335564</v>
+        <v>607.072144</v>
       </c>
       <c r="I4">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="J4">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N4">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O4">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P4">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q4">
-        <v>7616.429282163474</v>
+        <v>13369.69350105275</v>
       </c>
       <c r="R4">
-        <v>68547.86353947126</v>
+        <v>120327.2415094747</v>
       </c>
       <c r="S4">
-        <v>0.07508187529690888</v>
+        <v>0.102148562276663</v>
       </c>
       <c r="T4">
-        <v>0.07508187529690888</v>
+        <v>0.102148562276663</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>109.1118546666667</v>
+        <v>202.3573813333333</v>
       </c>
       <c r="H5">
-        <v>327.335564</v>
+        <v>607.072144</v>
       </c>
       <c r="I5">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="J5">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N5">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O5">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P5">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q5">
-        <v>2221.66473475837</v>
+        <v>3472.621632093414</v>
       </c>
       <c r="R5">
-        <v>19994.98261282533</v>
+        <v>31253.59468884072</v>
       </c>
       <c r="S5">
-        <v>0.02190091293269199</v>
+        <v>0.02653189521668914</v>
       </c>
       <c r="T5">
-        <v>0.02190091293269199</v>
+        <v>0.02653189521668914</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>109.1118546666667</v>
+        <v>202.3573813333333</v>
       </c>
       <c r="H6">
-        <v>327.335564</v>
+        <v>607.072144</v>
       </c>
       <c r="I6">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="J6">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N6">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O6">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P6">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q6">
-        <v>3306.335170891037</v>
+        <v>6691.222761802345</v>
       </c>
       <c r="R6">
-        <v>29757.01653801933</v>
+        <v>60221.0048562211</v>
       </c>
       <c r="S6">
-        <v>0.03259346811923784</v>
+        <v>0.05112299582164485</v>
       </c>
       <c r="T6">
-        <v>0.03259346811923784</v>
+        <v>0.05112299582164485</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>109.1118546666667</v>
+        <v>202.3573813333333</v>
       </c>
       <c r="H7">
-        <v>327.335564</v>
+        <v>607.072144</v>
       </c>
       <c r="I7">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="J7">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N7">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O7">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P7">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q7">
-        <v>8703.178517351251</v>
+        <v>18130.22522953082</v>
       </c>
       <c r="R7">
-        <v>78328.60665616125</v>
+        <v>163172.0270657774</v>
       </c>
       <c r="S7">
-        <v>0.08579492304310975</v>
+        <v>0.1385204859634837</v>
       </c>
       <c r="T7">
-        <v>0.08579492304310976</v>
+        <v>0.1385204859634837</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>682.901626</v>
       </c>
       <c r="I8">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="J8">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N8">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O8">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P8">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q8">
-        <v>2276.600608167925</v>
+        <v>4132.245250843886</v>
       </c>
       <c r="R8">
-        <v>20489.40547351132</v>
+        <v>37190.20725759497</v>
       </c>
       <c r="S8">
-        <v>0.02244246439255028</v>
+        <v>0.03157162214040544</v>
       </c>
       <c r="T8">
-        <v>0.02244246439255028</v>
+        <v>0.03157162214040544</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>682.901626</v>
       </c>
       <c r="I9">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="J9">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>214.143257</v>
       </c>
       <c r="O9">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P9">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q9">
         <v>16248.75315580398</v>
@@ -1013,10 +1013,10 @@
         <v>146238.7784022359</v>
       </c>
       <c r="S9">
-        <v>0.1601783214913259</v>
+        <v>0.1241454617881161</v>
       </c>
       <c r="T9">
-        <v>0.1601783214913259</v>
+        <v>0.1241454617881161</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>682.901626</v>
       </c>
       <c r="I10">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="J10">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N10">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O10">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P10">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q10">
-        <v>15889.7245308287</v>
+        <v>15039.70412944949</v>
       </c>
       <c r="R10">
-        <v>143007.5207774583</v>
+        <v>135357.3371650454</v>
       </c>
       <c r="S10">
-        <v>0.1566390590036477</v>
+        <v>0.1149079561000174</v>
       </c>
       <c r="T10">
-        <v>0.1566390590036477</v>
+        <v>0.1149079561000174</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>682.901626</v>
       </c>
       <c r="I11">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="J11">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N11">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O11">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P11">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q11">
-        <v>4634.933159274284</v>
+        <v>3906.387375005904</v>
       </c>
       <c r="R11">
-        <v>41714.39843346855</v>
+        <v>35157.48637505313</v>
       </c>
       <c r="S11">
-        <v>0.04569063278629814</v>
+        <v>0.02984599864021867</v>
       </c>
       <c r="T11">
-        <v>0.04569063278629814</v>
+        <v>0.02984599864021867</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>682.901626</v>
       </c>
       <c r="I12">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="J12">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N12">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O12">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P12">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q12">
-        <v>6897.81958523296</v>
+        <v>7527.024504624663</v>
       </c>
       <c r="R12">
-        <v>62080.37626709663</v>
+        <v>67743.22054162197</v>
       </c>
       <c r="S12">
-        <v>0.06799790436338497</v>
+        <v>0.05750877769247879</v>
       </c>
       <c r="T12">
-        <v>0.06799790436338497</v>
+        <v>0.05750877769247879</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>682.901626</v>
       </c>
       <c r="I13">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="J13">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N13">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O13">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P13">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q13">
-        <v>18156.94783738023</v>
+        <v>20394.87466417636</v>
       </c>
       <c r="R13">
-        <v>163412.5305364221</v>
+        <v>183553.8719775872</v>
       </c>
       <c r="S13">
-        <v>0.1789890830459367</v>
+        <v>0.1558231027954615</v>
       </c>
       <c r="T13">
-        <v>0.1789890830459367</v>
+        <v>0.1558231027954615</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.194568</v>
+        <v>0.1759946666666667</v>
       </c>
       <c r="H14">
-        <v>0.583704</v>
+        <v>0.527984</v>
       </c>
       <c r="I14">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="J14">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N14">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O14">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P14">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q14">
-        <v>1.945903818056</v>
+        <v>3.194836991824</v>
       </c>
       <c r="R14">
-        <v>17.513134362504</v>
+        <v>28.753532926416</v>
       </c>
       <c r="S14">
-        <v>1.918249384251601E-05</v>
+        <v>2.440953529693283E-05</v>
       </c>
       <c r="T14">
-        <v>1.918249384251601E-05</v>
+        <v>2.440953529693284E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.194568</v>
+        <v>0.1759946666666667</v>
       </c>
       <c r="H15">
-        <v>0.583704</v>
+        <v>0.527984</v>
       </c>
       <c r="I15">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="J15">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>214.143257</v>
       </c>
       <c r="O15">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P15">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q15">
-        <v>13.888475075992</v>
+        <v>12.56269037820978</v>
       </c>
       <c r="R15">
-        <v>124.996275683928</v>
+        <v>113.064213403888</v>
       </c>
       <c r="S15">
-        <v>0.0001369109743015503</v>
+        <v>9.598281070242567E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001369109743015503</v>
+        <v>9.598281070242569E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.194568</v>
+        <v>0.1759946666666667</v>
       </c>
       <c r="H16">
-        <v>0.583704</v>
+        <v>0.527984</v>
       </c>
       <c r="I16">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="J16">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N16">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O16">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P16">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q16">
-        <v>13.581598599888</v>
+        <v>11.62791658821333</v>
       </c>
       <c r="R16">
-        <v>122.234387398992</v>
+        <v>104.65124929392</v>
       </c>
       <c r="S16">
-        <v>0.0001338858216405319</v>
+        <v>8.884085201096236E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001338858216405319</v>
+        <v>8.884085201096239E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.194568</v>
+        <v>0.1759946666666667</v>
       </c>
       <c r="H17">
-        <v>0.583704</v>
+        <v>0.527984</v>
       </c>
       <c r="I17">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="J17">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N17">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O17">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P17">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q17">
-        <v>3.961667276512</v>
+        <v>3.020215435546667</v>
       </c>
       <c r="R17">
-        <v>35.655005488608</v>
+        <v>27.18193891992</v>
       </c>
       <c r="S17">
-        <v>3.905365590664646E-05</v>
+        <v>2.307537300556554E-05</v>
       </c>
       <c r="T17">
-        <v>3.905365590664646E-05</v>
+        <v>2.307537300556554E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.194568</v>
+        <v>0.1759946666666667</v>
       </c>
       <c r="H18">
-        <v>0.583704</v>
+        <v>0.527984</v>
       </c>
       <c r="I18">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="J18">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N18">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O18">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P18">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q18">
-        <v>5.895849021128</v>
+        <v>5.819503651393778</v>
       </c>
       <c r="R18">
-        <v>53.062641190152</v>
+        <v>52.375532862544</v>
       </c>
       <c r="S18">
-        <v>5.812059491058419E-05</v>
+        <v>4.446279423734411E-05</v>
       </c>
       <c r="T18">
-        <v>5.812059491058419E-05</v>
+        <v>4.446279423734411E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.194568</v>
+        <v>0.1759946666666667</v>
       </c>
       <c r="H19">
-        <v>0.583704</v>
+        <v>0.527984</v>
       </c>
       <c r="I19">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="J19">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N19">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O19">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P19">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q19">
-        <v>15.51948725404</v>
+        <v>15.76825577025422</v>
       </c>
       <c r="R19">
-        <v>139.67538528636</v>
+        <v>141.914301932288</v>
       </c>
       <c r="S19">
-        <v>0.0001529893029281577</v>
+        <v>0.0001204743142702064</v>
       </c>
       <c r="T19">
-        <v>0.0001529893029281577</v>
+        <v>0.0001204743142702064</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>22.05086833333333</v>
+        <v>12.07540333333333</v>
       </c>
       <c r="H20">
-        <v>66.15260499999999</v>
+        <v>36.22621</v>
       </c>
       <c r="I20">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="J20">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N20">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O20">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P20">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q20">
-        <v>220.5340491822061</v>
+        <v>219.20519519831</v>
       </c>
       <c r="R20">
-        <v>1984.806442639855</v>
+        <v>1972.84675678479</v>
       </c>
       <c r="S20">
-        <v>0.002173999044171178</v>
+        <v>0.001674794978008995</v>
       </c>
       <c r="T20">
-        <v>0.002173999044171178</v>
+        <v>0.001674794978008995</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>22.05086833333333</v>
+        <v>12.07540333333333</v>
       </c>
       <c r="H21">
-        <v>66.15260499999999</v>
+        <v>36.22621</v>
       </c>
       <c r="I21">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="J21">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>214.143257</v>
       </c>
       <c r="O21">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P21">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q21">
-        <v>1574.014921526054</v>
+        <v>861.9553997962189</v>
       </c>
       <c r="R21">
-        <v>14166.13429373448</v>
+        <v>7757.598598165971</v>
       </c>
       <c r="S21">
-        <v>0.01551645629143471</v>
+        <v>0.006585603838177521</v>
       </c>
       <c r="T21">
-        <v>0.01551645629143471</v>
+        <v>0.006585603838177521</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>22.05086833333333</v>
+        <v>12.07540333333333</v>
       </c>
       <c r="H22">
-        <v>66.15260499999999</v>
+        <v>36.22621</v>
       </c>
       <c r="I22">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="J22">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N22">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O22">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P22">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q22">
-        <v>1539.235858323643</v>
+        <v>797.8183963663668</v>
       </c>
       <c r="R22">
-        <v>13853.12272491279</v>
+        <v>7180.365567297301</v>
       </c>
       <c r="S22">
-        <v>0.01517360832560091</v>
+        <v>0.006095577444634771</v>
       </c>
       <c r="T22">
-        <v>0.01517360832560091</v>
+        <v>0.006095577444634773</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>22.05086833333333</v>
+        <v>12.07540333333333</v>
       </c>
       <c r="H23">
-        <v>66.15260499999999</v>
+        <v>36.22621</v>
       </c>
       <c r="I23">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="J23">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N23">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O23">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P23">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q23">
-        <v>448.9854626394955</v>
+        <v>207.2240041617834</v>
       </c>
       <c r="R23">
-        <v>4040.86916375546</v>
+        <v>1865.01603745605</v>
       </c>
       <c r="S23">
-        <v>0.004426046545849095</v>
+        <v>0.001583255000772653</v>
       </c>
       <c r="T23">
-        <v>0.004426046545849095</v>
+        <v>0.001583255000772653</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>22.05086833333333</v>
+        <v>12.07540333333333</v>
       </c>
       <c r="H24">
-        <v>66.15260499999999</v>
+        <v>36.22621</v>
       </c>
       <c r="I24">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="J24">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N24">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O24">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P24">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q24">
-        <v>668.1910205075127</v>
+        <v>399.2896780416789</v>
       </c>
       <c r="R24">
-        <v>6013.719184567614</v>
+        <v>3593.60710237511</v>
       </c>
       <c r="S24">
-        <v>0.006586949476935032</v>
+        <v>0.003050695705227465</v>
       </c>
       <c r="T24">
-        <v>0.006586949476935032</v>
+        <v>0.003050695705227465</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>22.05086833333333</v>
+        <v>12.07540333333333</v>
       </c>
       <c r="H25">
-        <v>66.15260499999999</v>
+        <v>36.22621</v>
       </c>
       <c r="I25">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="J25">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N25">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O25">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P25">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q25">
-        <v>1758.861529335147</v>
+        <v>1081.896695481191</v>
       </c>
       <c r="R25">
-        <v>15829.75376401632</v>
+        <v>9737.070259330721</v>
       </c>
       <c r="S25">
-        <v>0.0173386526832637</v>
+        <v>0.008266022849856232</v>
       </c>
       <c r="T25">
-        <v>0.01733865268326371</v>
+        <v>0.008266022849856232</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.772957</v>
+        <v>0.7692486666666666</v>
       </c>
       <c r="H26">
-        <v>2.318871</v>
+        <v>2.307746</v>
       </c>
       <c r="I26">
-        <v>0.002145816331084288</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="J26">
-        <v>0.002145816331084289</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N26">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O26">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P26">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q26">
-        <v>7.730459158202334</v>
+        <v>13.964196431206</v>
       </c>
       <c r="R26">
-        <v>69.574132423821</v>
+        <v>125.677767880854</v>
       </c>
       <c r="S26">
-        <v>7.620596857155157E-05</v>
+        <v>0.0001066907471502083</v>
       </c>
       <c r="T26">
-        <v>7.620596857155158E-05</v>
+        <v>0.0001066907471502083</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.772957</v>
+        <v>0.7692486666666666</v>
       </c>
       <c r="H27">
-        <v>2.318871</v>
+        <v>2.307746</v>
       </c>
       <c r="I27">
-        <v>0.002145816331084288</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="J27">
-        <v>0.002145816331084289</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>214.143257</v>
       </c>
       <c r="O27">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P27">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q27">
-        <v>55.17450983364967</v>
+        <v>54.90980497430244</v>
       </c>
       <c r="R27">
-        <v>496.570588502847</v>
+        <v>494.188244768722</v>
       </c>
       <c r="S27">
-        <v>0.0005439039100119412</v>
+        <v>0.0004195277649839389</v>
       </c>
       <c r="T27">
-        <v>0.0005439039100119415</v>
+        <v>0.000419527764983939</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.772957</v>
+        <v>0.7692486666666666</v>
       </c>
       <c r="H28">
-        <v>2.318871</v>
+        <v>2.307746</v>
       </c>
       <c r="I28">
-        <v>0.002145816331084288</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="J28">
-        <v>0.002145816331084289</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N28">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O28">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P28">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q28">
-        <v>53.955386851762</v>
+        <v>50.82403632455333</v>
       </c>
       <c r="R28">
-        <v>485.598481665858</v>
+        <v>457.41632692098</v>
       </c>
       <c r="S28">
-        <v>0.0005318859372445653</v>
+        <v>0.0003883112383422421</v>
       </c>
       <c r="T28">
-        <v>0.0005318859372445654</v>
+        <v>0.0003883112383422422</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.772957</v>
+        <v>0.7692486666666666</v>
       </c>
       <c r="H29">
-        <v>2.318871</v>
+        <v>2.307746</v>
       </c>
       <c r="I29">
-        <v>0.002145816331084288</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="J29">
-        <v>0.002145816331084289</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N29">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O29">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P29">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q29">
-        <v>15.73844852725467</v>
+        <v>13.20094944263667</v>
       </c>
       <c r="R29">
-        <v>141.646036745292</v>
+        <v>118.80854498373</v>
       </c>
       <c r="S29">
-        <v>0.0001551477977295019</v>
+        <v>0.0001008593058730981</v>
       </c>
       <c r="T29">
-        <v>0.0001551477977295019</v>
+        <v>0.0001008593058730981</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.772957</v>
+        <v>0.7692486666666666</v>
       </c>
       <c r="H30">
-        <v>2.318871</v>
+        <v>2.307746</v>
       </c>
       <c r="I30">
-        <v>0.002145816331084288</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="J30">
-        <v>0.002145816331084289</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N30">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O30">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P30">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q30">
-        <v>23.42233960273033</v>
+        <v>25.43625616209844</v>
       </c>
       <c r="R30">
-        <v>210.801056424573</v>
+        <v>228.926305458886</v>
       </c>
       <c r="S30">
-        <v>0.0002308947035499179</v>
+        <v>0.000194340804929797</v>
       </c>
       <c r="T30">
-        <v>0.0002308947035499179</v>
+        <v>0.000194340804929797</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.772957</v>
+        <v>0.7692486666666666</v>
       </c>
       <c r="H31">
-        <v>2.318871</v>
+        <v>2.307746</v>
       </c>
       <c r="I31">
-        <v>0.002145816331084288</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="J31">
-        <v>0.002145816331084289</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N31">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O31">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P31">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q31">
-        <v>61.65400430400167</v>
+        <v>68.92089377856355</v>
       </c>
       <c r="R31">
-        <v>554.8860387360151</v>
+        <v>620.288044007072</v>
       </c>
       <c r="S31">
-        <v>0.00060777801397681</v>
+        <v>0.0005265767842582571</v>
       </c>
       <c r="T31">
-        <v>0.0006077780139768102</v>
+        <v>0.0005265767842582571</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.4517016666666667</v>
+        <v>0.02543033333333333</v>
       </c>
       <c r="H32">
-        <v>1.355105</v>
+        <v>0.076291</v>
       </c>
       <c r="I32">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="J32">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N32">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O32">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P32">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q32">
-        <v>4.517536274150555</v>
+        <v>0.461637680201</v>
       </c>
       <c r="R32">
-        <v>40.657826467355</v>
+        <v>4.154739121809</v>
       </c>
       <c r="S32">
-        <v>4.453334792713885E-05</v>
+        <v>3.527053579915874E-06</v>
       </c>
       <c r="T32">
-        <v>4.453334792713885E-05</v>
+        <v>3.527053579915875E-06</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.4517016666666667</v>
+        <v>0.02543033333333333</v>
       </c>
       <c r="H33">
-        <v>1.355105</v>
+        <v>0.076291</v>
       </c>
       <c r="I33">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="J33">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>214.143257</v>
       </c>
       <c r="O33">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P33">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q33">
-        <v>32.24295536410944</v>
+        <v>1.815244802198555</v>
       </c>
       <c r="R33">
-        <v>290.186598276985</v>
+        <v>16.337203219787</v>
       </c>
       <c r="S33">
-        <v>0.0003178473093055766</v>
+        <v>1.386902749192922E-05</v>
       </c>
       <c r="T33">
-        <v>0.0003178473093055767</v>
+        <v>1.386902749192922E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>0.4517016666666667</v>
+        <v>0.02543033333333333</v>
       </c>
       <c r="H34">
-        <v>1.355105</v>
+        <v>0.076291</v>
       </c>
       <c r="I34">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="J34">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N34">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O34">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P34">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q34">
-        <v>31.53052261197667</v>
+        <v>1.680174748536667</v>
       </c>
       <c r="R34">
-        <v>283.77470350779</v>
+        <v>15.12157273683</v>
       </c>
       <c r="S34">
-        <v>0.0003108242299764828</v>
+        <v>1.283705082117702E-05</v>
       </c>
       <c r="T34">
-        <v>0.0003108242299764829</v>
+        <v>1.283705082117703E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.4517016666666667</v>
+        <v>0.02543033333333333</v>
       </c>
       <c r="H35">
-        <v>1.355105</v>
+        <v>0.076291</v>
       </c>
       <c r="I35">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="J35">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N35">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O35">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P35">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q35">
-        <v>9.197256031717778</v>
+        <v>0.4364057543283334</v>
       </c>
       <c r="R35">
-        <v>82.77530428546</v>
+        <v>3.927651788955</v>
       </c>
       <c r="S35">
-        <v>9.066548179792523E-05</v>
+        <v>3.334273921118065E-06</v>
       </c>
       <c r="T35">
-        <v>9.066548179792523E-05</v>
+        <v>3.334273921118065E-06</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>0.4517016666666667</v>
+        <v>0.02543033333333333</v>
       </c>
       <c r="H36">
-        <v>1.355105</v>
+        <v>0.076291</v>
       </c>
       <c r="I36">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="J36">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N36">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O36">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P36">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q36">
-        <v>13.68757878612389</v>
+        <v>0.8408886501645556</v>
       </c>
       <c r="R36">
-        <v>123.188209075115</v>
+        <v>7.567997851481</v>
       </c>
       <c r="S36">
-        <v>0.0001349305620079821</v>
+        <v>6.424647404393352E-06</v>
       </c>
       <c r="T36">
-        <v>0.0001349305620079821</v>
+        <v>6.424647404393352E-06</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.4517016666666667</v>
+        <v>0.02543033333333333</v>
       </c>
       <c r="H37">
-        <v>1.355105</v>
+        <v>0.076291</v>
       </c>
       <c r="I37">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="J37">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N37">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O37">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P37">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q37">
-        <v>36.02945118653611</v>
+        <v>2.278432681612444</v>
       </c>
       <c r="R37">
-        <v>324.265060678825</v>
+        <v>20.505894134512</v>
       </c>
       <c r="S37">
-        <v>0.0003551741453621375</v>
+        <v>1.740792506967695E-05</v>
       </c>
       <c r="T37">
-        <v>0.0003551741453621375</v>
+        <v>1.740792506967695E-05</v>
       </c>
     </row>
   </sheetData>
